--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H2">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N2">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O2">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P2">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q2">
-        <v>2.590132563505917</v>
+        <v>14.76559970513067</v>
       </c>
       <c r="R2">
-        <v>2.590132563505917</v>
+        <v>132.890397346176</v>
       </c>
       <c r="S2">
-        <v>0.01058947958216794</v>
+        <v>0.0395286045420289</v>
       </c>
       <c r="T2">
-        <v>0.01058947958216794</v>
+        <v>0.0395286045420289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H3">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N3">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O3">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P3">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q3">
-        <v>7.428416940282887</v>
+        <v>12.14146335492267</v>
       </c>
       <c r="R3">
-        <v>7.428416940282887</v>
+        <v>109.273170194304</v>
       </c>
       <c r="S3">
-        <v>0.03037028707537669</v>
+        <v>0.0325035970839375</v>
       </c>
       <c r="T3">
-        <v>0.03037028707537669</v>
+        <v>0.0325035970839375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H4">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N4">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O4">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P4">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q4">
-        <v>4.017755372796175</v>
+        <v>6.641681121237333</v>
       </c>
       <c r="R4">
-        <v>4.017755372796175</v>
+        <v>59.775130091136</v>
       </c>
       <c r="S4">
-        <v>0.01642616253925701</v>
+        <v>0.01778027251032852</v>
       </c>
       <c r="T4">
-        <v>0.01642616253925701</v>
+        <v>0.01778027251032852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H5">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.665050626713615</v>
+        <v>0.6651113333333333</v>
       </c>
       <c r="N5">
-        <v>0.665050626713615</v>
+        <v>1.995334</v>
       </c>
       <c r="O5">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="P5">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="Q5">
-        <v>8.894417266507162</v>
+        <v>12.92616739790933</v>
       </c>
       <c r="R5">
-        <v>8.894417266507162</v>
+        <v>116.335506581184</v>
       </c>
       <c r="S5">
-        <v>0.0363638724002106</v>
+        <v>0.03460430795360662</v>
       </c>
       <c r="T5">
-        <v>0.0363638724002106</v>
+        <v>0.03460430795360662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H6">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N6">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O6">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P6">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q6">
-        <v>9.24839096217705</v>
+        <v>37.14607894394</v>
       </c>
       <c r="R6">
-        <v>9.24839096217705</v>
+        <v>334.3147104954601</v>
       </c>
       <c r="S6">
-        <v>0.03781105594430191</v>
+        <v>0.09944280585852421</v>
       </c>
       <c r="T6">
-        <v>0.03781105594430191</v>
+        <v>0.09944280585852419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H7">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N7">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O7">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P7">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q7">
-        <v>26.52408801841551</v>
+        <v>30.54449296226</v>
       </c>
       <c r="R7">
-        <v>26.52408801841551</v>
+        <v>274.90043666034</v>
       </c>
       <c r="S7">
-        <v>0.1084408931280534</v>
+        <v>0.08176987100784172</v>
       </c>
       <c r="T7">
-        <v>0.1084408931280534</v>
+        <v>0.08176987100784171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H8">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N8">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O8">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P8">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q8">
-        <v>14.34589603696226</v>
+        <v>16.70859404134</v>
       </c>
       <c r="R8">
-        <v>14.34589603696226</v>
+        <v>150.37734637206</v>
       </c>
       <c r="S8">
-        <v>0.05865165949872769</v>
+        <v>0.0447301443560016</v>
       </c>
       <c r="T8">
-        <v>0.05865165949872769</v>
+        <v>0.0447301443560016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H9">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.665050626713615</v>
+        <v>0.6651113333333333</v>
       </c>
       <c r="N9">
-        <v>0.665050626713615</v>
+        <v>1.995334</v>
       </c>
       <c r="O9">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="P9">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="Q9">
-        <v>31.75862479797298</v>
+        <v>32.51858672821</v>
       </c>
       <c r="R9">
-        <v>31.75862479797298</v>
+        <v>292.66728055389</v>
       </c>
       <c r="S9">
-        <v>0.1298417361313171</v>
+        <v>0.08705466629969888</v>
       </c>
       <c r="T9">
-        <v>0.1298417361313171</v>
+        <v>0.08705466629969887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H10">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N10">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O10">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P10">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q10">
-        <v>11.5087568799147</v>
+        <v>49.53134942809334</v>
       </c>
       <c r="R10">
-        <v>11.5087568799147</v>
+        <v>445.7821448528401</v>
       </c>
       <c r="S10">
-        <v>0.04705231991332134</v>
+        <v>0.132599092693528</v>
       </c>
       <c r="T10">
-        <v>0.04705231991332134</v>
+        <v>0.132599092693528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H11">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N11">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O11">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P11">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q11">
-        <v>33.00674481797051</v>
+        <v>40.72865823337333</v>
       </c>
       <c r="R11">
-        <v>33.00674481797051</v>
+        <v>366.55792410036</v>
       </c>
       <c r="S11">
-        <v>0.1349445411591682</v>
+        <v>0.1090336360855732</v>
       </c>
       <c r="T11">
-        <v>0.1349445411591682</v>
+        <v>0.1090336360855732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H12">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N12">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O12">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P12">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q12">
-        <v>17.85212480626635</v>
+        <v>22.27958464102667</v>
       </c>
       <c r="R12">
-        <v>17.85212480626635</v>
+        <v>200.51626176924</v>
       </c>
       <c r="S12">
-        <v>0.07298650030421093</v>
+        <v>0.05964409900193825</v>
       </c>
       <c r="T12">
-        <v>0.07298650030421093</v>
+        <v>0.05964409900193827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H13">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.665050626713615</v>
+        <v>0.6651113333333333</v>
       </c>
       <c r="N13">
-        <v>0.665050626713615</v>
+        <v>1.995334</v>
       </c>
       <c r="O13">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="P13">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="Q13">
-        <v>39.5206358744011</v>
+        <v>43.36095566300666</v>
       </c>
       <c r="R13">
-        <v>39.5206358744011</v>
+        <v>390.2486009670599</v>
       </c>
       <c r="S13">
-        <v>0.1615758871043235</v>
+        <v>0.1160804913580224</v>
       </c>
       <c r="T13">
-        <v>0.1615758871043235</v>
+        <v>0.1160804913580224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H14">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N14">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O14">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P14">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q14">
-        <v>4.280858741189212</v>
+        <v>17.23549307652801</v>
       </c>
       <c r="R14">
-        <v>4.280858741189212</v>
+        <v>155.119437688752</v>
       </c>
       <c r="S14">
-        <v>0.0175018324825075</v>
+        <v>0.04614069211643466</v>
       </c>
       <c r="T14">
-        <v>0.0175018324825075</v>
+        <v>0.04614069211643466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H15">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N15">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O15">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P15">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q15">
-        <v>12.27736527468099</v>
+        <v>14.172408284912</v>
       </c>
       <c r="R15">
-        <v>12.27736527468099</v>
+        <v>127.551674564208</v>
       </c>
       <c r="S15">
-        <v>0.05019469301720744</v>
+        <v>0.03794058715460098</v>
       </c>
       <c r="T15">
-        <v>0.05019469301720744</v>
+        <v>0.03794058715460098</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H16">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N16">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O16">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P16">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q16">
-        <v>6.64037179020437</v>
+        <v>7.752658291408001</v>
       </c>
       <c r="R16">
-        <v>6.64037179020437</v>
+        <v>69.77392462267201</v>
       </c>
       <c r="S16">
-        <v>0.02714844887907703</v>
+        <v>0.020754440718318</v>
       </c>
       <c r="T16">
-        <v>0.02714844887907703</v>
+        <v>0.02075444071831801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H17">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.665050626713615</v>
+        <v>0.6651113333333333</v>
       </c>
       <c r="N17">
-        <v>0.665050626713615</v>
+        <v>1.995334</v>
       </c>
       <c r="O17">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="P17">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="Q17">
-        <v>14.70030701887064</v>
+        <v>15.088372510552</v>
       </c>
       <c r="R17">
-        <v>14.70030701887064</v>
+        <v>135.795352594968</v>
       </c>
       <c r="S17">
-        <v>0.06010063084077166</v>
+        <v>0.04039269125961666</v>
       </c>
       <c r="T17">
-        <v>0.06010063084077166</v>
+        <v>0.04039269125961666</v>
       </c>
     </row>
   </sheetData>
